--- a/Resources/Sample Reqs Document.xlsx
+++ b/Resources/Sample Reqs Document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruckman\Desktop\Projects\RDA\Symposium 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8974DFD2-1FC2-4DD8-8BA8-4CC88C356D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250997BA-A547-499B-A048-789ED6454754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5E7EA8F5-2E76-4B55-B2CE-2026658F07A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="2" xr2:uid="{5E7EA8F5-2E76-4B55-B2CE-2026658F07A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Page View" sheetId="15" r:id="rId1"/>
@@ -259,9 +259,6 @@
     <t>Equates to PageEvent.DataKey in Sitecore.</t>
   </si>
   <si>
-    <t>The value must match an existing Campaign in Sitecore.</t>
-  </si>
-  <si>
     <t>Equates to PageEvent.DataKey in Sitecore.
 (If this is a Goal, the label should match the goal name in Google Analytics. Otherwise, it can just match the tag name in GTM.)</t>
   </si>
@@ -521,6 +518,9 @@
   </si>
   <si>
     <t>http://symposiumsc.dev.local?sc_camp=1521E14DC53F4A07B4AC5FCF7227DC25&amp;utm_campaign=2019%20Fall%20Attire%20TV%20Campaign&amp;utm_source=TV&amp;utm_medium=Broadcast</t>
+  </si>
+  <si>
+    <t>The value must match the name of an existing Campaign in Sitecore.</t>
   </si>
 </sst>
 </file>
@@ -670,9 +670,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -695,6 +692,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1013,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664E9B41-3B8D-49BD-A6DE-D004A2BAD363}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1026,11 +1026,11 @@
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1259,11 +1259,11 @@
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -1287,7 +1287,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>47</v>
@@ -1334,10 +1334,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1383,10 +1383,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1450,8 +1450,8 @@
       <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>97</v>
+      <c r="B24" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -1459,8 +1459,8 @@
       <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>102</v>
+      <c r="B25" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="C25" s="9"/>
     </row>
@@ -1539,11 +1539,11 @@
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -1567,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -1603,7 +1603,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>47</v>
@@ -1614,7 +1614,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>48</v>
@@ -1663,10 +1663,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1730,8 +1730,8 @@
       <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>97</v>
+      <c r="B24" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -1739,8 +1739,8 @@
       <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>102</v>
+      <c r="B25" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="C25" s="9"/>
     </row>
@@ -1819,11 +1819,11 @@
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -1847,7 +1847,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -1883,7 +1883,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>47</v>
@@ -1894,7 +1894,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>48</v>
@@ -1943,10 +1943,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2010,8 +2010,8 @@
       <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>97</v>
+      <c r="B24" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -2019,8 +2019,8 @@
       <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>102</v>
+      <c r="B25" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="C25" s="9"/>
     </row>
@@ -2086,7 +2086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DE347A-4C25-424A-97E9-F6871D51CB90}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2099,11 +2101,11 @@
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -2127,7 +2129,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -2163,7 +2165,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>47</v>
@@ -2174,10 +2176,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2213,7 +2215,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>40</v>
@@ -2356,7 +2358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5535C07-A227-449E-8586-0D852941FF87}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2369,11 +2373,11 @@
       <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -2444,7 +2448,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="9"/>
     </row>
@@ -2453,7 +2457,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="9"/>
     </row>
@@ -2598,12 +2602,12 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2681,7 +2685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E13BF8F-8FDB-476E-BE2D-B4CB69F9966C}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2695,159 +2701,159 @@
       <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
-        <v>2</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="D8" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
-        <v>4</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2985,7 +2991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431C5728-FE58-4C9D-9AB6-89BC78E08918}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2998,11 +3006,11 @@
       <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -3062,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>47</v>
@@ -3116,7 +3124,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3183,8 +3191,8 @@
       <c r="A23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>114</v>
+      <c r="B23" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="C23" s="9"/>
     </row>
@@ -3193,7 +3201,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -3259,7 +3267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B1FF0E-C41E-4EC6-9170-641068B1A1A8}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3272,11 +3282,11 @@
       <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -3336,7 +3346,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>47</v>
@@ -3390,7 +3400,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3457,8 +3467,8 @@
       <c r="A23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>115</v>
+      <c r="B23" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="C23" s="9"/>
     </row>
@@ -3466,8 +3476,8 @@
       <c r="A24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>121</v>
+      <c r="B24" s="26" t="s">
+        <v>120</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -3533,7 +3543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B9A175-6EB6-41C9-A7C7-420CFCEBC3D5}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3546,11 +3558,11 @@
       <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -3610,7 +3622,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>47</v>
@@ -3631,7 +3643,7 @@
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="9" t="s">
         <v>32</v>
       </c>
@@ -3664,7 +3676,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3691,7 +3703,7 @@
       <c r="A18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="20" t="str">
+      <c r="B18" s="19" t="str">
         <f>B10</f>
         <v>2019 Fall Attire AdWords Campaign</v>
       </c>
@@ -3701,7 +3713,7 @@
       <c r="A19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3728,8 +3740,8 @@
       <c r="A23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>117</v>
+      <c r="B23" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="C23" s="9"/>
     </row>
@@ -3737,8 +3749,8 @@
       <c r="A24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>116</v>
+      <c r="B24" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -3817,11 +3829,11 @@
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -3845,7 +3857,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -3881,7 +3893,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>47</v>
@@ -3892,7 +3904,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>48</v>
@@ -3941,7 +3953,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>40</v>
@@ -4008,7 +4020,7 @@
       <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="9"/>
@@ -4017,7 +4029,7 @@
       <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="9"/>
@@ -4091,11 +4103,11 @@
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -4119,7 +4131,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -4155,7 +4167,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>47</v>
@@ -4282,7 +4294,7 @@
       <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="9"/>
@@ -4291,7 +4303,7 @@
       <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="9"/>
@@ -4371,11 +4383,11 @@
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -4399,7 +4411,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -4435,7 +4447,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>47</v>
@@ -4446,7 +4458,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>48</v>
@@ -4495,10 +4507,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4562,8 +4574,8 @@
       <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>87</v>
+      <c r="B24" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -4571,8 +4583,8 @@
       <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>88</v>
+      <c r="B25" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="C25" s="9"/>
     </row>
@@ -4651,11 +4663,11 @@
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -4679,7 +4691,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -4715,7 +4727,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>47</v>
@@ -4726,10 +4738,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4775,10 +4787,10 @@
         <v>34</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4842,8 +4854,8 @@
       <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>97</v>
+      <c r="B24" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -4851,8 +4863,8 @@
       <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>88</v>
+      <c r="B25" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="C25" s="9"/>
     </row>

--- a/Resources/Sample Reqs Document.xlsx
+++ b/Resources/Sample Reqs Document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruckman\Desktop\Projects\RDA\Symposium 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C10F70-7C7F-4FA4-B3DB-BA903A4495FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D6862F-79CC-462D-B718-47AFD937B824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5E7EA8F5-2E76-4B55-B2CE-2026658F07A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E7EA8F5-2E76-4B55-B2CE-2026658F07A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Dimensions" sheetId="8" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <sheet name="Event - Payment Btn Click" sheetId="30" r:id="rId10"/>
     <sheet name="Event - Review Btn Click" sheetId="31" r:id="rId11"/>
     <sheet name="Event - Complete Ordr Btn Click" sheetId="32" r:id="rId12"/>
-    <sheet name="Goal - Checkout Btn Click" sheetId="33" r:id="rId13"/>
-    <sheet name="Outcome - Product Purchase" sheetId="34" r:id="rId14"/>
-    <sheet name="Lists" sheetId="10" r:id="rId15"/>
+    <sheet name="Goal - Checkout Btn Click" sheetId="35" r:id="rId13"/>
+    <sheet name="Goal - Subscribe Btn Click" sheetId="33" r:id="rId14"/>
+    <sheet name="Outcome - Product Purchase" sheetId="34" r:id="rId15"/>
+    <sheet name="Lists" sheetId="10" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,6 +38,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="177">
   <si>
     <t>Page Event</t>
   </si>
@@ -1297,12 +1299,112 @@
       <t>We need to trigger the Broadcast TV campaign.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Implementation Notes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Implemented the GTM variables in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>green</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> below, and added the custom dimensions to Google Analytics.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Marketer Notes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>We want to trigger a goal when the SUBSCRIBE button is clicked.</t>
+    </r>
+  </si>
+  <si>
+    <t>Goal - Subscribe Button Click</t>
+  </si>
+  <si>
+    <t>Subscribe Button Click</t>
+  </si>
+  <si>
+    <t>Clicking the "SUBSCRIBE" button on the home page.</t>
+  </si>
+  <si>
+    <t>http://symposiumsc.dev.local</t>
+  </si>
+  <si>
+    <t>Required: The value must exactly match the name of an existing Campaign in Sitecore. Also, if the Category is "Goal", must match an existing goal in GA.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1399,6 +1501,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1427,7 +1536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1497,6 +1606,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1814,17 +1927,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E13BF8F-8FDB-476E-BE2D-B4CB69F9966C}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+    <col min="4" max="4" width="51.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
@@ -1832,10 +1945,10 @@
         <v>127</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -1843,7 +1956,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -1857,11 +1970,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -1871,11 +1984,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1885,11 +1998,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="30" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1899,11 +2012,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1913,11 +2026,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="30" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -1927,11 +2040,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -1941,11 +2054,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1955,11 +2068,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="30" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -1969,11 +2082,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="30" t="s">
         <v>92</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -1983,127 +2096,127 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2120,14 +2233,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
@@ -2138,12 +2251,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2154,7 +2267,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -2165,7 +2278,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -2176,7 +2289,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -2187,7 +2300,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -2198,7 +2311,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -2209,7 +2322,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -2220,7 +2333,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
@@ -2231,7 +2344,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>122</v>
       </c>
@@ -2242,7 +2355,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -2254,16 +2367,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2274,7 +2387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -2283,7 +2396,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
@@ -2292,16 +2405,16 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -2312,7 +2425,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>9</v>
       </c>
@@ -2324,7 +2437,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>10</v>
       </c>
@@ -2335,7 +2448,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>30</v>
       </c>
@@ -2347,7 +2460,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
@@ -2359,7 +2472,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>5</v>
       </c>
@@ -2371,7 +2484,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
@@ -2383,7 +2496,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>8</v>
       </c>
@@ -2395,7 +2508,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
@@ -2404,7 +2517,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
@@ -2413,7 +2526,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>100</v>
       </c>
@@ -2422,7 +2535,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>101</v>
       </c>
@@ -2431,7 +2544,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>102</v>
       </c>
@@ -2440,7 +2553,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>103</v>
       </c>
@@ -2449,7 +2562,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>104</v>
       </c>
@@ -2458,7 +2571,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>105</v>
       </c>
@@ -2467,7 +2580,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>106</v>
       </c>
@@ -2476,26 +2589,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
@@ -2537,14 +2650,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
@@ -2555,12 +2668,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2571,7 +2684,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -2582,7 +2695,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -2593,7 +2706,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -2604,7 +2717,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -2615,7 +2728,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -2626,7 +2739,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -2637,7 +2750,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
@@ -2648,7 +2761,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>122</v>
       </c>
@@ -2659,7 +2772,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -2671,16 +2784,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2691,7 +2804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -2700,7 +2813,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
@@ -2709,16 +2822,16 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -2729,7 +2842,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>9</v>
       </c>
@@ -2741,7 +2854,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>10</v>
       </c>
@@ -2752,7 +2865,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>30</v>
       </c>
@@ -2764,7 +2877,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
@@ -2776,7 +2889,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>5</v>
       </c>
@@ -2788,7 +2901,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
@@ -2800,7 +2913,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>8</v>
       </c>
@@ -2812,7 +2925,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
@@ -2821,7 +2934,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
@@ -2830,7 +2943,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>100</v>
       </c>
@@ -2839,7 +2952,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>101</v>
       </c>
@@ -2848,7 +2961,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>102</v>
       </c>
@@ -2857,7 +2970,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>103</v>
       </c>
@@ -2866,7 +2979,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>104</v>
       </c>
@@ -2875,7 +2988,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>105</v>
       </c>
@@ -2884,7 +2997,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>106</v>
       </c>
@@ -2893,26 +3006,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
@@ -2954,14 +3067,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
@@ -2972,12 +3085,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2988,7 +3101,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -2999,7 +3112,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -3010,7 +3123,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -3021,7 +3134,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -3032,7 +3145,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -3043,7 +3156,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -3054,7 +3167,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
@@ -3065,7 +3178,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>122</v>
       </c>
@@ -3076,7 +3189,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -3088,16 +3201,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3108,7 +3221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -3117,7 +3230,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
@@ -3126,16 +3239,16 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -3146,7 +3259,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>9</v>
       </c>
@@ -3158,7 +3271,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>10</v>
       </c>
@@ -3169,7 +3282,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>30</v>
       </c>
@@ -3181,7 +3294,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
@@ -3193,7 +3306,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>5</v>
       </c>
@@ -3205,7 +3318,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
@@ -3217,7 +3330,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>8</v>
       </c>
@@ -3229,7 +3342,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
@@ -3238,7 +3351,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
@@ -3247,7 +3360,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>100</v>
       </c>
@@ -3256,7 +3369,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>101</v>
       </c>
@@ -3265,7 +3378,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>102</v>
       </c>
@@ -3274,7 +3387,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>103</v>
       </c>
@@ -3283,7 +3396,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>104</v>
       </c>
@@ -3292,7 +3405,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>105</v>
       </c>
@@ -3301,7 +3414,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>106</v>
       </c>
@@ -3310,26 +3423,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
@@ -3366,37 +3479,452 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234C1118-8743-40B3-B72E-FBABE2B83C8F}">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="23" t="str">
+        <f>B5 &amp; " SC"</f>
+        <v>Goal - Checkout Button Click SC</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="23" t="str">
+        <f>B5 &amp; " SC"</f>
+        <v>Goal - Checkout Button Click SC</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="23" t="str">
+        <f>B10</f>
+        <v>Checkout Button Click</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="23" t="str">
+        <f>B8</f>
+        <v>Goal</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="23" t="str">
+        <f>B9</f>
+        <v>Checkout Button Click</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="23" t="str">
+        <f>B10</f>
+        <v>Checkout Button Click</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="24" t="str">
+        <f>B11</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{F8250146-13FB-42B9-8947-FEF3687087BB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5EA29EA6-E6C6-4543-9720-C40E88017694}">
+          <x14:formula1>
+            <xm:f>Lists!$C$1:$C$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16985326-03AE-4E61-9E32-EB59CD53E8EC}">
+          <x14:formula1>
+            <xm:f>Lists!$B$2:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CB152028-2535-4988-997B-FAD22BF3E3D2}">
+          <x14:formula1>
+            <xm:f>Lists!$A$1:$A$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E43E3A-A50D-4039-8AEF-94B4F99481BD}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3407,18 +3935,18 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -3429,7 +3957,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -3440,7 +3968,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -3451,29 +3979,29 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
@@ -3484,7 +4012,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>122</v>
       </c>
@@ -3495,28 +4023,28 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
       <c r="B13" s="23" t="str">
         <f>B5 &amp; " SC"</f>
-        <v>Goal - Checkout Button Click SC</v>
+        <v>Goal - Subscribe Button Click SC</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3527,34 +4055,34 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -3565,19 +4093,19 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="23" t="str">
         <f>B5 &amp; " SC"</f>
-        <v>Goal - Checkout Button Click SC</v>
+        <v>Goal - Subscribe Button Click SC</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>10</v>
       </c>
@@ -3588,19 +4116,19 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="23" t="str">
         <f>B10</f>
-        <v>Checkout Button Click</v>
+        <v>Subscribe Button Click</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
@@ -3612,31 +4140,31 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="23" t="str">
         <f>B9</f>
-        <v>Checkout Button Click</v>
+        <v>Subscribe Button Click</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="23" t="str">
         <f>B10</f>
-        <v>Checkout Button Click</v>
+        <v>Subscribe Button Click</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>8</v>
       </c>
@@ -3648,7 +4176,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
@@ -3657,7 +4185,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
@@ -3666,7 +4194,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>100</v>
       </c>
@@ -3675,7 +4203,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>101</v>
       </c>
@@ -3684,7 +4212,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>102</v>
       </c>
@@ -3693,7 +4221,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>103</v>
       </c>
@@ -3702,7 +4230,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>104</v>
       </c>
@@ -3711,7 +4239,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>105</v>
       </c>
@@ -3720,7 +4248,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>106</v>
       </c>
@@ -3729,26 +4257,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
@@ -3784,20 +4312,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E84D4A0-13F3-483D-8C11-930EA07653B7}">
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="83.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
@@ -3808,12 +4336,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3824,7 +4352,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -3835,7 +4363,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -3846,7 +4374,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -3857,7 +4385,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -3868,7 +4396,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -3879,7 +4407,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -3890,7 +4418,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
@@ -3901,7 +4429,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>122</v>
       </c>
@@ -3912,7 +4440,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -3924,16 +4452,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3944,7 +4472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -3953,7 +4481,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
@@ -3962,16 +4490,16 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -3982,7 +4510,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>9</v>
       </c>
@@ -3994,7 +4522,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>10</v>
       </c>
@@ -4005,7 +4533,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>30</v>
       </c>
@@ -4017,7 +4545,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
@@ -4029,7 +4557,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>5</v>
       </c>
@@ -4041,7 +4569,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
@@ -4053,7 +4581,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>8</v>
       </c>
@@ -4065,7 +4593,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
@@ -4076,7 +4604,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
@@ -4087,7 +4615,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>100</v>
       </c>
@@ -4096,7 +4624,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>101</v>
       </c>
@@ -4105,7 +4633,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>102</v>
       </c>
@@ -4114,7 +4642,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>103</v>
       </c>
@@ -4123,7 +4651,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>104</v>
       </c>
@@ -4132,7 +4660,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>105</v>
       </c>
@@ -4141,7 +4669,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>106</v>
       </c>
@@ -4150,26 +4678,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
@@ -4205,7 +4733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0F8009-A7AE-47E9-BBE0-1E0F4C3554D1}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -4213,15 +4741,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -4232,7 +4760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -4243,7 +4771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -4251,7 +4779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -4259,85 +4787,85 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
     </row>
   </sheetData>
@@ -4351,14 +4879,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
@@ -4369,12 +4897,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -4385,7 +4913,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -4396,7 +4924,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -4407,7 +4935,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -4418,7 +4946,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -4429,7 +4957,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -4440,7 +4968,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -4451,7 +4979,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
@@ -4462,7 +4990,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>122</v>
       </c>
@@ -4473,7 +5001,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -4485,16 +5013,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -4505,7 +5033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -4516,7 +5044,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
@@ -4525,16 +5053,16 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -4545,7 +5073,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>9</v>
       </c>
@@ -4557,7 +5085,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>10</v>
       </c>
@@ -4568,7 +5096,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>30</v>
       </c>
@@ -4580,7 +5108,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
@@ -4592,7 +5120,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>5</v>
       </c>
@@ -4604,7 +5132,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
@@ -4616,7 +5144,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>8</v>
       </c>
@@ -4628,7 +5156,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
@@ -4637,7 +5165,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
@@ -4646,7 +5174,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>100</v>
       </c>
@@ -4655,7 +5183,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>101</v>
       </c>
@@ -4664,7 +5192,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>102</v>
       </c>
@@ -4673,7 +5201,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>103</v>
       </c>
@@ -4682,7 +5210,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>104</v>
       </c>
@@ -4691,7 +5219,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>105</v>
       </c>
@@ -4700,7 +5228,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>106</v>
       </c>
@@ -4709,26 +5237,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
@@ -4770,14 +5298,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
@@ -4788,12 +5316,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -4804,7 +5332,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -4815,7 +5343,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -4826,7 +5354,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -4837,7 +5365,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -4848,7 +5376,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -4859,7 +5387,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -4870,7 +5398,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
@@ -4881,7 +5409,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>122</v>
       </c>
@@ -4892,7 +5420,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -4904,16 +5432,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -4924,7 +5452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -4935,7 +5463,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
@@ -4944,16 +5472,16 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -4964,7 +5492,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>9</v>
       </c>
@@ -4976,7 +5504,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>10</v>
       </c>
@@ -4987,7 +5515,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>30</v>
       </c>
@@ -4999,7 +5527,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
@@ -5011,7 +5539,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>5</v>
       </c>
@@ -5023,7 +5551,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
@@ -5035,7 +5563,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>8</v>
       </c>
@@ -5047,7 +5575,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
@@ -5056,7 +5584,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
@@ -5065,7 +5593,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>100</v>
       </c>
@@ -5074,7 +5602,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>101</v>
       </c>
@@ -5083,7 +5611,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>102</v>
       </c>
@@ -5092,7 +5620,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>103</v>
       </c>
@@ -5101,7 +5629,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>104</v>
       </c>
@@ -5110,7 +5638,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>105</v>
       </c>
@@ -5119,7 +5647,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>106</v>
       </c>
@@ -5128,26 +5656,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
@@ -5189,14 +5717,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
@@ -5207,12 +5735,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -5223,7 +5751,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -5234,7 +5762,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -5245,7 +5773,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -5256,7 +5784,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -5267,7 +5795,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -5278,7 +5806,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -5289,7 +5817,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
@@ -5300,7 +5828,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>122</v>
       </c>
@@ -5311,7 +5839,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -5323,16 +5851,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -5343,7 +5871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -5354,7 +5882,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
@@ -5363,16 +5891,16 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -5383,7 +5911,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>9</v>
       </c>
@@ -5395,7 +5923,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>10</v>
       </c>
@@ -5406,7 +5934,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>30</v>
       </c>
@@ -5418,7 +5946,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
@@ -5430,7 +5958,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>5</v>
       </c>
@@ -5442,7 +5970,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
@@ -5454,7 +5982,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>8</v>
       </c>
@@ -5466,7 +5994,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
@@ -5475,7 +6003,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
@@ -5484,7 +6012,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>100</v>
       </c>
@@ -5493,7 +6021,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>101</v>
       </c>
@@ -5502,7 +6030,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>102</v>
       </c>
@@ -5511,7 +6039,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>103</v>
       </c>
@@ -5520,7 +6048,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>104</v>
       </c>
@@ -5529,7 +6057,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>105</v>
       </c>
@@ -5538,7 +6066,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>106</v>
       </c>
@@ -5547,26 +6075,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
@@ -5608,14 +6136,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
@@ -5626,12 +6154,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -5642,7 +6170,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -5653,7 +6181,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -5664,7 +6192,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -5675,7 +6203,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -5686,7 +6214,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -5697,7 +6225,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -5708,7 +6236,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
@@ -5719,7 +6247,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>122</v>
       </c>
@@ -5730,7 +6258,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -5742,16 +6270,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -5762,7 +6290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -5771,7 +6299,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
@@ -5780,16 +6308,16 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -5800,7 +6328,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>9</v>
       </c>
@@ -5812,7 +6340,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>10</v>
       </c>
@@ -5823,7 +6351,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>30</v>
       </c>
@@ -5835,7 +6363,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
@@ -5847,7 +6375,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>5</v>
       </c>
@@ -5859,7 +6387,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
@@ -5871,7 +6399,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>8</v>
       </c>
@@ -5883,7 +6411,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
@@ -5892,7 +6420,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
@@ -5901,7 +6429,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>100</v>
       </c>
@@ -5910,7 +6438,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>101</v>
       </c>
@@ -5919,7 +6447,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>102</v>
       </c>
@@ -5928,7 +6456,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>103</v>
       </c>
@@ -5937,7 +6465,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>104</v>
       </c>
@@ -5946,7 +6474,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>105</v>
       </c>
@@ -5955,7 +6483,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>106</v>
       </c>
@@ -5964,26 +6492,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
@@ -6025,14 +6553,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
@@ -6043,12 +6571,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -6059,7 +6587,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -6070,7 +6598,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -6081,7 +6609,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -6092,7 +6620,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -6103,7 +6631,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -6114,7 +6642,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -6125,7 +6653,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
@@ -6136,7 +6664,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>122</v>
       </c>
@@ -6147,7 +6675,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -6159,16 +6687,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -6179,7 +6707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -6188,23 +6716,23 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -6215,7 +6743,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>9</v>
       </c>
@@ -6227,7 +6755,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>10</v>
       </c>
@@ -6238,7 +6766,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>30</v>
       </c>
@@ -6250,7 +6778,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
@@ -6262,7 +6790,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>5</v>
       </c>
@@ -6274,7 +6802,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
@@ -6286,7 +6814,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>8</v>
       </c>
@@ -6298,7 +6826,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
@@ -6307,7 +6835,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
@@ -6316,7 +6844,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>100</v>
       </c>
@@ -6325,7 +6853,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>101</v>
       </c>
@@ -6334,7 +6862,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>102</v>
       </c>
@@ -6343,7 +6871,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>103</v>
       </c>
@@ -6352,7 +6880,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>104</v>
       </c>
@@ -6361,7 +6889,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>105</v>
       </c>
@@ -6370,7 +6898,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>106</v>
       </c>
@@ -6379,26 +6907,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
@@ -6437,14 +6965,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
@@ -6455,12 +6983,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -6471,7 +6999,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -6482,7 +7010,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -6493,7 +7021,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -6504,7 +7032,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -6515,7 +7043,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -6526,7 +7054,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -6537,7 +7065,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
@@ -6548,7 +7076,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>122</v>
       </c>
@@ -6559,7 +7087,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -6571,16 +7099,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -6591,7 +7119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -6600,7 +7128,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
@@ -6609,16 +7137,16 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -6629,7 +7157,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>9</v>
       </c>
@@ -6641,7 +7169,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>10</v>
       </c>
@@ -6652,7 +7180,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>30</v>
       </c>
@@ -6664,7 +7192,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
@@ -6676,7 +7204,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>5</v>
       </c>
@@ -6688,7 +7216,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
@@ -6700,7 +7228,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>8</v>
       </c>
@@ -6712,7 +7240,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
@@ -6721,7 +7249,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
@@ -6730,7 +7258,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>100</v>
       </c>
@@ -6739,7 +7267,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>101</v>
       </c>
@@ -6748,7 +7276,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>102</v>
       </c>
@@ -6757,7 +7285,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>103</v>
       </c>
@@ -6766,7 +7294,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>104</v>
       </c>
@@ -6775,7 +7303,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>105</v>
       </c>
@@ -6784,7 +7312,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>106</v>
       </c>
@@ -6793,26 +7321,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
@@ -6854,14 +7382,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
@@ -6872,12 +7400,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -6888,7 +7416,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -6899,7 +7427,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -6910,7 +7438,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -6921,7 +7449,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -6932,7 +7460,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -6943,7 +7471,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -6954,7 +7482,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
@@ -6965,7 +7493,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>122</v>
       </c>
@@ -6976,7 +7504,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -6988,16 +7516,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -7008,7 +7536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -7017,7 +7545,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
@@ -7026,16 +7554,16 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -7046,7 +7574,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>9</v>
       </c>
@@ -7058,7 +7586,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>10</v>
       </c>
@@ -7069,7 +7597,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>30</v>
       </c>
@@ -7081,7 +7609,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
@@ -7093,7 +7621,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>5</v>
       </c>
@@ -7105,7 +7633,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
@@ -7117,7 +7645,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>8</v>
       </c>
@@ -7129,7 +7657,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
@@ -7138,7 +7666,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
@@ -7147,7 +7675,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>100</v>
       </c>
@@ -7156,7 +7684,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>101</v>
       </c>
@@ -7165,7 +7693,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>102</v>
       </c>
@@ -7174,7 +7702,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>103</v>
       </c>
@@ -7183,7 +7711,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>104</v>
       </c>
@@ -7192,7 +7720,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>105</v>
       </c>
@@ -7201,7 +7729,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>106</v>
       </c>
@@ -7210,26 +7738,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
@@ -7271,14 +7799,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>131</v>
       </c>
@@ -7289,12 +7817,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -7305,7 +7833,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -7316,7 +7844,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -7327,7 +7855,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -7338,7 +7866,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
@@ -7349,7 +7877,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
@@ -7360,7 +7888,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -7371,7 +7899,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
@@ -7382,7 +7910,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>122</v>
       </c>
@@ -7393,7 +7921,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -7405,16 +7933,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -7425,7 +7953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -7434,7 +7962,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
@@ -7443,16 +7971,16 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -7463,7 +7991,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>9</v>
       </c>
@@ -7475,7 +8003,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>10</v>
       </c>
@@ -7486,7 +8014,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>30</v>
       </c>
@@ -7498,7 +8026,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
@@ -7510,7 +8038,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>5</v>
       </c>
@@ -7522,7 +8050,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
@@ -7534,7 +8062,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>8</v>
       </c>
@@ -7546,7 +8074,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
@@ -7555,7 +8083,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
@@ -7564,7 +8092,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>100</v>
       </c>
@@ -7573,7 +8101,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>101</v>
       </c>
@@ -7582,7 +8110,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>102</v>
       </c>
@@ -7591,7 +8119,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>103</v>
       </c>
@@ -7600,7 +8128,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>104</v>
       </c>
@@ -7609,7 +8137,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>105</v>
       </c>
@@ -7618,7 +8146,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>106</v>
       </c>
@@ -7627,26 +8155,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
